--- a/src/balance/balanco.xlsx
+++ b/src/balance/balanco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Página 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -2262,7 +2262,7 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -4315,7 +4315,7 @@
   </sheetPr>
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
